--- a/阅读笔记/Challenge/快速阅读记录.xlsx
+++ b/阅读笔记/Challenge/快速阅读记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Notes\StudyNotes\阅读笔记\Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB4A314-6640-4F42-9DD7-A165260947E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615B8018-8081-46E7-B46E-9E87EF73F275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8850" yWindow="1200" windowWidth="11890" windowHeight="13430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -189,6 +189,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -196,12 +202,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -490,7 +490,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -503,330 +503,301 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="8"/>
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>44693</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="7">
         <v>506</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="9">
         <v>0.5</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="8"/>
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>44694</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="G3" s="7" t="s">
+      <c r="B3" s="7">
+        <v>486</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9">
+        <v>0.54</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>44695</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>44696</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="G5" s="4" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="G5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>44697</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="G6" s="8" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="G6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>44698</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="G7" s="7" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="G7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>44699</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>44700</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>44701</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>44702</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>44703</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>44704</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>44705</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>44706</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>44707</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B19:C19"/>
@@ -835,6 +806,11 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
@@ -846,13 +822,41 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G5:J5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
